--- a/SuppXLS/Scen_Refinery.xlsx
+++ b/SuppXLS/Scen_Refinery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\Demo_S012_Vonline\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Demo_S012_Vonline\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54045FE1-BDC0-4758-BCB6-843EFD798A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA69F5-BD21-4B9F-A581-4EA3FAFBAD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1752" windowWidth="16044" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
@@ -369,7 +369,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -385,13 +385,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,9 +659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -702,9 +699,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,26 +734,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,26 +769,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -988,29 +951,28 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1035,28 +997,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <v>2005</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>15667.369000000001</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>15667.369000000001</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1075,32 +1035,32 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="17"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,12 +1072,12 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:254" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:254" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1166,14 +1126,14 @@
       <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -1192,15 +1152,15 @@
       <c r="I4" s="10">
         <v>0.5</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="IT4" s="10"/>
     </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>28</v>
       </c>
@@ -1219,14 +1179,14 @@
       <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>28</v>
       </c>
@@ -1245,14 +1205,14 @@
       <c r="I6" s="10">
         <v>0.5</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>28</v>
       </c>
@@ -1271,14 +1231,14 @@
       <c r="I7" s="10">
         <v>0.5</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1297,14 +1257,14 @@
       <c r="I8" s="10">
         <v>0.5</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>28</v>
       </c>
@@ -1323,14 +1283,14 @@
       <c r="I9" s="10">
         <v>0.5</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -1359,12 +1319,12 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>28</v>
       </c>
@@ -1374,21 +1334,21 @@
       <c r="E11">
         <v>2020</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <f>'BY Data'!H4*(1+Refinery!S11)</f>
         <v>19584.21125</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <f>'BY Data'!I4*(1+Refinery!T11)</f>
         <v>20367.579700000002</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <v>0.25</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="11">
         <v>0.3</v>
       </c>
     </row>
